--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21697\OneDrive\Documents\Visual Studio\HTML\Angular\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B36D5BF-1E27-4BE5-8AA9-A8CDE47558BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F2C12-23C8-42A2-9F39-D45A2EC0298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{DD29A0ED-4022-4E63-8102-C98A077501F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD29A0ED-4022-4E63-8102-C98A077501F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869940BA-D568-45DD-87F0-4FCDCFF6B845}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21697\OneDrive\Documents\Visual Studio\HTML\Angular\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D09F175-6189-4837-9971-78A351BB9884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109A78D4-AAD4-40B3-81B8-6595E56497A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD29A0ED-4022-4E63-8102-C98A077501F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Title</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Description 2</t>
+  </si>
+  <si>
+    <t>Khanfour</t>
   </si>
 </sst>
 </file>
@@ -474,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869940BA-D568-45DD-87F0-4FCDCFF6B845}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +489,7 @@
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,8 +520,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -549,8 +555,11 @@
       <c r="J2">
         <v>19.989999999999998</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -580,6 +589,9 @@
       </c>
       <c r="J3">
         <v>24.99</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21697\OneDrive\Documents\Visual Studio\HTML\Angular\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A83B72E-5CAE-4947-B7CF-7F9FEED71E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049E4C7D-5D15-4C50-8799-DC88E5E47FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD29A0ED-4022-4E63-8102-C98A077501F9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Title</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>Description 2</t>
+  </si>
+  <si>
+    <t>Book Title2</t>
+  </si>
+  <si>
+    <t>Book Title 3</t>
+  </si>
+  <si>
+    <t>Book Title 14</t>
+  </si>
+  <si>
+    <t>Author 4</t>
+  </si>
+  <si>
+    <t>Publisher 3</t>
+  </si>
+  <si>
+    <t>Publisher 4</t>
+  </si>
+  <si>
+    <t>Sc</t>
   </si>
 </sst>
 </file>
@@ -474,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869940BA-D568-45DD-87F0-4FCDCFF6B845}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,6 +603,134 @@
         <v>24.99</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1234567890125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44927</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>123456789016</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44562</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>300</v>
+      </c>
+      <c r="J5">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1234567890127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43466</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1234567890128</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>43831</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
